--- a/actions/DB.xlsx
+++ b/actions/DB.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhaas\Downloads\Chatbot_demo_Telegram-20220620T052034Z-001\Chatbot_demo_Telegram\actions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhaas\Documents\GitHub\BPDC_Chatbot\actions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1F45D4-DB73-4139-A218-C84190F818BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9AFAB7-528F-4720-BF3F-2436628DA9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clubs" sheetId="1" r:id="rId1"/>
     <sheet name="Auth" sheetId="2" r:id="rId2"/>
+    <sheet name="GPA" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="204">
   <si>
     <t>Name</t>
   </si>
@@ -689,6 +690,9 @@
   </si>
   <si>
     <t>2020A7PS0007U</t>
+  </si>
+  <si>
+    <t>GPA</t>
   </si>
 </sst>
 </file>
@@ -3620,8 +3624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456DD9F9-3995-483D-B814-54DDCF18F460}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3656,4 +3660,46 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45B29E7-ECB0-4590-9F4C-E28543DB56C0}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="9">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="9">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>